--- a/data/577 Projects/2012-2013/COCOMO Estimations.xlsx
+++ b/data/577 Projects/2012-2013/COCOMO Estimations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10044"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Cocomo Effort Estimation" sheetId="1" r:id="rId1"/>
     <sheet name="Estimation Model Comparison" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>PROJ</t>
   </si>
@@ -240,12 +240,69 @@
   </si>
   <si>
     <t>~\577 projects\fall2012\team10a\Development</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Pediatric_Trauma_Society_Research_Investigator_Databank _PTS_RID</t>
+  </si>
+  <si>
+    <t>FlowerSeeker</t>
+  </si>
+  <si>
+    <t>Student_Scheduling_System</t>
+  </si>
+  <si>
+    <t>United_Direct_Marketing</t>
+  </si>
+  <si>
+    <t>Mission_Science_Information_and_Data_Management_System_2.0</t>
+  </si>
+  <si>
+    <t>Art_Crafts_Website</t>
+  </si>
+  <si>
+    <t>Web_Media_Modernization_2012</t>
+  </si>
+  <si>
+    <t>Improvementon_on_VITA_website</t>
+  </si>
+  <si>
+    <t>XL_2</t>
+  </si>
+  <si>
+    <t>Web_based_product_configurator_and_data_service_system</t>
+  </si>
+  <si>
+    <t>~\577 projects\spring2013\team03b\team03\Development</t>
+  </si>
+  <si>
+    <t>Effort (PM)</t>
+  </si>
+  <si>
+    <t>6&amp;4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Application Point</t>
+  </si>
+  <si>
+    <t>Effort (PH)</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -307,6 +364,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,23 +492,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -480,23 +527,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,37 +703,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="126.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
-    <col min="6" max="7" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" customWidth="1"/>
-    <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="16" width="24.88671875" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="18.88671875" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
-    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="126.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="22" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col min="25" max="25" width="18.7109375" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -713,68 +746,86 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -784,14 +835,20 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -801,827 +858,961 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>2468</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>8.07</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>4.6100000000000003</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>0.6</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>7.16</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <v>6.77</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>704.28</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>8.9499999999999993</v>
       </c>
-      <c r="Q3">
+      <c r="W3">
         <v>7.26</v>
       </c>
-      <c r="R3">
+      <c r="X3">
         <v>563.41999999999996</v>
       </c>
-      <c r="S3">
+      <c r="Y3">
         <v>1.2</v>
       </c>
-      <c r="T3">
+      <c r="Z3">
         <v>11.18</v>
       </c>
-      <c r="U3">
+      <c r="AA3">
         <v>7.78</v>
       </c>
-      <c r="V3">
+      <c r="AB3">
         <v>450.74</v>
       </c>
-      <c r="W3">
+      <c r="AC3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>220</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>0.73</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0.4</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>543.41</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>880</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>0.6</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>2.94</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1.76</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>499.44</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>440</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>0.7</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>1.47</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.02</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>431.33</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>840</v>
       </c>
-      <c r="G7">
+      <c r="M7">
         <v>0.42</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <v>2.8</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1.18</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>713.31</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="E10" s="12">
+        <v>73</v>
+      </c>
+      <c r="F10" s="12">
+        <v>6</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12">
+        <v>7.05</v>
+      </c>
+      <c r="E12" s="12">
+        <f>7.05*156</f>
+        <v>1099.8</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="K12" t="s">
         <v>41</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>1500</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
         <v>42</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>2000</v>
       </c>
-      <c r="G13">
+      <c r="M13">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
         <v>43</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>500</v>
       </c>
-      <c r="G14">
+      <c r="M14">
         <v>0.48</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
         <v>44</v>
       </c>
-      <c r="F15">
+      <c r="L15">
         <v>1200</v>
       </c>
-      <c r="G15">
+      <c r="M15">
         <v>1.56</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
         <v>45</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>200</v>
       </c>
-      <c r="G16">
+      <c r="M16">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="E18" s="12">
+        <f>4.8*156</f>
+        <v>748.8</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E18" t="s">
+      <c r="K18" t="s">
         <v>46</v>
       </c>
-      <c r="F18">
+      <c r="L18">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="M18">
         <v>0.75</v>
       </c>
-      <c r="H18">
+      <c r="N18">
         <v>0.3</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>0.2</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>439.3</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>3.8</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>4.5</v>
       </c>
-      <c r="N18">
+      <c r="T18">
         <v>465.9</v>
       </c>
-      <c r="O18">
+      <c r="U18">
         <v>0.8</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>4.8</v>
       </c>
-      <c r="Q18">
+      <c r="W18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R18">
+      <c r="X18">
         <v>372.8</v>
       </c>
-      <c r="S18">
+      <c r="Y18">
         <v>1</v>
       </c>
-      <c r="T18">
+      <c r="Z18">
         <v>6</v>
       </c>
-      <c r="U18">
+      <c r="AA18">
         <v>5.2</v>
       </c>
-      <c r="V18">
+      <c r="AB18">
         <v>298.2</v>
       </c>
-      <c r="W18">
+      <c r="AC18">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
         <v>47</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="M19">
         <v>0.63</v>
       </c>
-      <c r="H19">
+      <c r="N19">
         <v>0.3</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>0.2</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>525.29999999999995</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
         <v>48</v>
       </c>
-      <c r="F20">
+      <c r="L20">
         <v>315</v>
       </c>
-      <c r="G20">
+      <c r="M20">
         <v>0.68</v>
       </c>
-      <c r="H20">
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>0.7</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>483.3</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
         <v>49</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>420</v>
       </c>
-      <c r="G21">
+      <c r="M21">
         <v>0.78</v>
       </c>
-      <c r="H21">
+      <c r="N21">
         <v>1.3</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="P21">
         <v>420.4</v>
       </c>
-      <c r="K21">
+      <c r="Q21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
         <v>50</v>
       </c>
-      <c r="F22">
+      <c r="L22">
         <v>420</v>
       </c>
-      <c r="G22">
+      <c r="M22">
         <v>0.99</v>
       </c>
-      <c r="H22">
+      <c r="N22">
         <v>1.3</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>1.3</v>
       </c>
-      <c r="J22">
+      <c r="P22">
         <v>331.9</v>
       </c>
-      <c r="K22">
+      <c r="Q22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
         <v>51</v>
       </c>
-      <c r="F23">
+      <c r="L23">
         <v>420</v>
       </c>
-      <c r="G23">
+      <c r="M23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H23">
+      <c r="N23">
         <v>1.3</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>1.4</v>
       </c>
-      <c r="J23">
+      <c r="P23">
         <v>294.2</v>
       </c>
-      <c r="K23">
+      <c r="Q23">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="E25" s="12">
+        <f>7.5*156</f>
+        <v>1170</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E25" t="s">
+      <c r="K25" t="s">
         <v>52</v>
       </c>
-      <c r="F25">
+      <c r="L25">
         <v>630</v>
       </c>
-      <c r="G25">
+      <c r="M25">
         <v>0.42</v>
       </c>
-      <c r="H25">
+      <c r="N25">
         <v>2.1</v>
-      </c>
-      <c r="I25">
-        <v>0.9</v>
-      </c>
-      <c r="J25">
-        <v>730.4</v>
-      </c>
-      <c r="K25">
-        <v>0.1</v>
-      </c>
-      <c r="L25">
-        <v>6</v>
-      </c>
-      <c r="M25">
-        <v>6.4</v>
-      </c>
-      <c r="N25">
-        <v>823.3</v>
       </c>
       <c r="O25">
         <v>0.9</v>
       </c>
       <c r="P25">
+        <v>730.4</v>
+      </c>
+      <c r="Q25">
+        <v>0.1</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>6.4</v>
+      </c>
+      <c r="T25">
+        <v>823.3</v>
+      </c>
+      <c r="U25">
+        <v>0.9</v>
+      </c>
+      <c r="V25">
         <v>7.5</v>
       </c>
-      <c r="Q25">
+      <c r="W25">
         <v>6.9</v>
       </c>
-      <c r="R25">
+      <c r="X25">
         <v>658.7</v>
       </c>
-      <c r="S25">
+      <c r="Y25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T25">
+      <c r="Z25">
         <v>9.4</v>
       </c>
-      <c r="U25">
+      <c r="AA25">
         <v>7.4</v>
       </c>
-      <c r="V25">
+      <c r="AB25">
         <v>526.9</v>
       </c>
-      <c r="W25">
+      <c r="AC25">
         <v>1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
         <v>53</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>840</v>
       </c>
-      <c r="G26">
+      <c r="M26">
         <v>0.35</v>
       </c>
-      <c r="H26">
+      <c r="N26">
         <v>2.7</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="P26">
         <v>880.9</v>
       </c>
-      <c r="K26">
+      <c r="Q26">
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
         <v>54</v>
       </c>
-      <c r="F27">
+      <c r="L27">
         <v>550</v>
       </c>
-      <c r="G27">
+      <c r="M27">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H27">
+      <c r="N27">
         <v>1.8</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>1</v>
       </c>
-      <c r="J27">
+      <c r="P27">
         <v>524.6</v>
       </c>
-      <c r="K27">
+      <c r="Q27">
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
         <v>55</v>
       </c>
-      <c r="F28">
+      <c r="L28">
         <v>525</v>
       </c>
-      <c r="G28">
+      <c r="M28">
         <v>0.47</v>
       </c>
-      <c r="H28">
+      <c r="N28">
         <v>1.7</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>0.8</v>
       </c>
-      <c r="J28">
+      <c r="P28">
         <v>655.1</v>
       </c>
-      <c r="K28">
+      <c r="Q28">
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E29" t="s">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
         <v>56</v>
       </c>
-      <c r="F29">
+      <c r="L29">
         <v>1050</v>
       </c>
-      <c r="G29">
+      <c r="M29">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H29">
+      <c r="N29">
         <v>3.4</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>1</v>
       </c>
-      <c r="J29">
+      <c r="P29">
         <v>1049.9000000000001</v>
       </c>
-      <c r="K29">
+      <c r="Q29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E30" t="s">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
         <v>57</v>
       </c>
-      <c r="F30">
+      <c r="L30">
         <v>330</v>
       </c>
-      <c r="G30">
+      <c r="M30">
         <v>0.35</v>
       </c>
-      <c r="H30">
+      <c r="N30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>0.4</v>
       </c>
-      <c r="J30">
+      <c r="P30">
         <v>880.9</v>
       </c>
-      <c r="K30">
+      <c r="Q30">
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
         <v>58</v>
       </c>
-      <c r="F31">
+      <c r="L31">
         <v>1040</v>
       </c>
-      <c r="G31">
+      <c r="M31">
         <v>0.73</v>
       </c>
-      <c r="H31">
+      <c r="N31">
         <v>3.4</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>2.5</v>
       </c>
-      <c r="J31">
+      <c r="P31">
         <v>416.4</v>
       </c>
-      <c r="K31">
+      <c r="Q31">
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>100</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="K33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E35" t="s">
+      <c r="K35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="12">
+        <v>137</v>
+      </c>
+      <c r="F37" s="12">
+        <v>6</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E37" t="s">
+      <c r="K37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="12">
+        <v>6</v>
+      </c>
+      <c r="G39" s="12">
+        <v>920</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E39" t="s">
+      <c r="K39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12">
+        <v>2.21</v>
+      </c>
+      <c r="E41" s="12">
+        <v>336</v>
+      </c>
+      <c r="F41" s="12">
+        <v>6</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E41" t="s">
+      <c r="K41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="E43" s="12">
+        <f>3.2*156</f>
+        <v>499.20000000000005</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E43" t="s">
+      <c r="K43" t="s">
         <v>59</v>
       </c>
-      <c r="F43">
+      <c r="L43">
         <v>1632</v>
       </c>
-      <c r="G43">
+      <c r="M43">
         <v>0.42</v>
       </c>
-      <c r="H43">
+      <c r="N43">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I43">
+      <c r="O43">
         <v>2.1</v>
       </c>
-      <c r="J43">
+      <c r="P43">
         <v>788.6</v>
       </c>
-      <c r="K43">
+      <c r="Q43">
         <v>0.3</v>
       </c>
-      <c r="L43">
+      <c r="R43">
         <v>2.6</v>
       </c>
-      <c r="M43">
+      <c r="S43">
         <v>6.4</v>
       </c>
-      <c r="N43">
+      <c r="T43">
         <v>798.2</v>
       </c>
-      <c r="O43">
+      <c r="U43">
         <v>0.4</v>
       </c>
-      <c r="P43">
+      <c r="V43">
         <v>3.2</v>
       </c>
-      <c r="Q43">
+      <c r="W43">
         <v>6.8</v>
       </c>
-      <c r="R43">
+      <c r="X43">
         <v>638.6</v>
       </c>
-      <c r="S43">
+      <c r="Y43">
         <v>0.5</v>
       </c>
-      <c r="T43">
+      <c r="Z43">
         <v>4</v>
       </c>
-      <c r="U43">
+      <c r="AA43">
         <v>7.3</v>
       </c>
-      <c r="V43">
+      <c r="AB43">
         <v>510.9</v>
       </c>
-      <c r="W43">
+      <c r="AC43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E44" t="s">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
         <v>60</v>
       </c>
-      <c r="F44">
+      <c r="L44">
         <v>100</v>
       </c>
-      <c r="G44">
+      <c r="M44">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H44">
+      <c r="N44">
         <v>0.3</v>
       </c>
-      <c r="I44">
+      <c r="O44">
         <v>0.2</v>
       </c>
-      <c r="J44">
+      <c r="P44">
         <v>575.70000000000005</v>
       </c>
-      <c r="K44">
+      <c r="Q44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E45" t="s">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
         <v>61</v>
       </c>
-      <c r="F45">
+      <c r="L45">
         <v>204</v>
       </c>
-      <c r="G45">
+      <c r="M45">
         <v>0.98</v>
       </c>
-      <c r="H45">
+      <c r="N45">
         <v>0.6</v>
       </c>
-      <c r="I45">
+      <c r="O45">
         <v>0.6</v>
       </c>
-      <c r="J45">
+      <c r="P45">
         <v>338.7</v>
       </c>
-      <c r="K45">
+      <c r="Q45">
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E46" t="s">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
         <v>62</v>
       </c>
-      <c r="F46">
+      <c r="L46">
         <v>100</v>
       </c>
-      <c r="G46">
+      <c r="M46">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H46">
+      <c r="N46">
         <v>0.3</v>
       </c>
-      <c r="I46">
+      <c r="O46">
         <v>0.3</v>
       </c>
-      <c r="J46">
+      <c r="P46">
         <v>291.8</v>
       </c>
-      <c r="K46">
+      <c r="Q46">
         <v>0.1</v>
       </c>
     </row>
@@ -1638,17 +1829,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1683,7 +1874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1709,7 +1900,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1745,7 +1936,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>39</v>
       </c>
